--- a/xlsx/country_comparison/petition_comparable_positive.xlsx
+++ b/xlsx/country_comparison/petition_comparable_positive.xlsx
@@ -404,7 +404,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510632322660348</v>
+        <v>0.510632323755612</v>
       </c>
       <c r="C2" t="n">
         <v>0.691951410757099</v>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.529524662543128</v>
+        <v>0.529524668384761</v>
       </c>
       <c r="C3" t="n">
         <v>0.763043789405645</v>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.573727410991036</v>
+        <v>0.57372741563391</v>
       </c>
       <c r="C4" t="n">
         <v>0.674017108978727</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.579296005055966</v>
+        <v>0.57929600664351</v>
       </c>
       <c r="C5" t="n">
         <v>0.718588625810646</v>
